--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Edil3-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Edil3-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Edil3</t>
+  </si>
+  <si>
+    <t>Itgb3</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Edil3</t>
-  </si>
-  <si>
-    <t>Itgb3</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03162300000000001</v>
+        <v>0.032689</v>
       </c>
       <c r="H2">
-        <v>0.09486900000000001</v>
+        <v>0.098067</v>
       </c>
       <c r="I2">
-        <v>0.005005177487828143</v>
+        <v>0.004345173951181294</v>
       </c>
       <c r="J2">
-        <v>0.005005177487828142</v>
+        <v>0.004345173951181294</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N2">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O2">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P2">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q2">
-        <v>0.209033669435</v>
+        <v>0.1997870502316667</v>
       </c>
       <c r="R2">
-        <v>1.881303024915</v>
+        <v>1.798083452085</v>
       </c>
       <c r="S2">
-        <v>0.003284106181247816</v>
+        <v>0.002633833639576351</v>
       </c>
       <c r="T2">
-        <v>0.003284106181247816</v>
+        <v>0.00263383363957635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03162300000000001</v>
+        <v>0.032689</v>
       </c>
       <c r="H3">
-        <v>0.09486900000000001</v>
+        <v>0.098067</v>
       </c>
       <c r="I3">
-        <v>0.005005177487828143</v>
+        <v>0.004345173951181294</v>
       </c>
       <c r="J3">
-        <v>0.005005177487828142</v>
+        <v>0.004345173951181294</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P3">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q3">
-        <v>0.08709935539200001</v>
+        <v>0.09003544345600001</v>
       </c>
       <c r="R3">
-        <v>0.7838941985280001</v>
+        <v>0.810318991104</v>
       </c>
       <c r="S3">
-        <v>0.001368408889336911</v>
+        <v>0.00118695570835852</v>
       </c>
       <c r="T3">
-        <v>0.001368408889336912</v>
+        <v>0.00118695570835852</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03162300000000001</v>
+        <v>0.032689</v>
       </c>
       <c r="H4">
-        <v>0.09486900000000001</v>
+        <v>0.098067</v>
       </c>
       <c r="I4">
-        <v>0.005005177487828143</v>
+        <v>0.004345173951181294</v>
       </c>
       <c r="J4">
-        <v>0.005005177487828142</v>
+        <v>0.004345173951181294</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N4">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O4">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P4">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q4">
-        <v>0.007250637391000001</v>
+        <v>0.018581702471</v>
       </c>
       <c r="R4">
-        <v>0.065255736519</v>
+        <v>0.167235322239</v>
       </c>
       <c r="S4">
-        <v>0.0001139140079114099</v>
+        <v>0.00024496639292671</v>
       </c>
       <c r="T4">
-        <v>0.0001139140079114099</v>
+        <v>0.00024496639292671</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03162300000000001</v>
+        <v>0.032689</v>
       </c>
       <c r="H5">
-        <v>0.09486900000000001</v>
+        <v>0.098067</v>
       </c>
       <c r="I5">
-        <v>0.005005177487828143</v>
+        <v>0.004345173951181294</v>
       </c>
       <c r="J5">
-        <v>0.005005177487828142</v>
+        <v>0.004345173951181294</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N5">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O5">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P5">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q5">
-        <v>0.008401651345</v>
+        <v>0.01205950602033334</v>
       </c>
       <c r="R5">
-        <v>0.07561486210500001</v>
+        <v>0.108535554183</v>
       </c>
       <c r="S5">
-        <v>0.0001319974681082818</v>
+        <v>0.0001589829400664178</v>
       </c>
       <c r="T5">
-        <v>0.0001319974681082818</v>
+        <v>0.0001589829400664178</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,46 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03162300000000001</v>
+        <v>0.032689</v>
       </c>
       <c r="H6">
-        <v>0.09486900000000001</v>
+        <v>0.098067</v>
       </c>
       <c r="I6">
-        <v>0.005005177487828143</v>
+        <v>0.004345173951181294</v>
       </c>
       <c r="J6">
-        <v>0.005005177487828142</v>
+        <v>0.004345173951181294</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N6">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q6">
-        <v>0.006794707518000001</v>
+        <v>0.009135507659333334</v>
       </c>
       <c r="R6">
-        <v>0.06115236766200001</v>
+        <v>0.082219568934</v>
       </c>
       <c r="S6">
-        <v>0.0001067509412237229</v>
+        <v>0.0001204352702532957</v>
       </c>
       <c r="T6">
-        <v>0.0001067509412237229</v>
+        <v>0.0001204352702532957</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>12.414895</v>
       </c>
       <c r="I7">
-        <v>0.6549953406038871</v>
+        <v>0.5500818660777927</v>
       </c>
       <c r="J7">
-        <v>0.6549953406038871</v>
+        <v>0.5500818660777927</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N7">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O7">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P7">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q7">
-        <v>27.35488997986945</v>
+        <v>25.29225173591389</v>
       </c>
       <c r="R7">
-        <v>246.194009818825</v>
+        <v>227.630265623225</v>
       </c>
       <c r="S7">
-        <v>0.4297698237468783</v>
+        <v>0.3334329395495757</v>
       </c>
       <c r="T7">
-        <v>0.4297698237468784</v>
+        <v>0.3334329395495756</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>12.414895</v>
       </c>
       <c r="I8">
-        <v>0.6549953406038871</v>
+        <v>0.5500818660777927</v>
       </c>
       <c r="J8">
-        <v>0.6549953406038871</v>
+        <v>0.5500818660777927</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P8">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q8">
         <v>11.39813165269334</v>
@@ -948,10 +948,10 @@
         <v>102.58318487424</v>
       </c>
       <c r="S8">
-        <v>0.1790748577320766</v>
+        <v>0.150263906195985</v>
       </c>
       <c r="T8">
-        <v>0.1790748577320767</v>
+        <v>0.150263906195985</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>12.414895</v>
       </c>
       <c r="I9">
-        <v>0.6549953406038871</v>
+        <v>0.5500818660777927</v>
       </c>
       <c r="J9">
-        <v>0.6549953406038871</v>
+        <v>0.5500818660777927</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N9">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O9">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P9">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q9">
-        <v>0.9488442156272224</v>
+        <v>2.352370166301667</v>
       </c>
       <c r="R9">
-        <v>8.539597940645001</v>
+        <v>21.171331496715</v>
       </c>
       <c r="S9">
-        <v>0.01490719252073199</v>
+        <v>0.03101177813855678</v>
       </c>
       <c r="T9">
-        <v>0.01490719252073199</v>
+        <v>0.03101177813855678</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>12.414895</v>
       </c>
       <c r="I10">
-        <v>0.6549953406038871</v>
+        <v>0.5500818660777927</v>
       </c>
       <c r="J10">
-        <v>0.6549953406038871</v>
+        <v>0.5500818660777927</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N10">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O10">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P10">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q10">
-        <v>1.099469998363889</v>
+        <v>1.526685847372778</v>
       </c>
       <c r="R10">
-        <v>9.895229985275002</v>
+        <v>13.740172626355</v>
       </c>
       <c r="S10">
-        <v>0.01727365848517605</v>
+        <v>0.0201266124967203</v>
       </c>
       <c r="T10">
-        <v>0.01727365848517605</v>
+        <v>0.0201266124967203</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>12.414895</v>
       </c>
       <c r="I11">
-        <v>0.6549953406038871</v>
+        <v>0.5500818660777927</v>
       </c>
       <c r="J11">
-        <v>0.6549953406038871</v>
+        <v>0.5500818660777927</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N11">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q11">
-        <v>0.8891796096900002</v>
+        <v>1.156519199754445</v>
       </c>
       <c r="R11">
-        <v>8.00261648721</v>
+        <v>10.40867279779</v>
       </c>
       <c r="S11">
-        <v>0.01396980811902403</v>
+        <v>0.01524662969695504</v>
       </c>
       <c r="T11">
-        <v>0.01396980811902404</v>
+        <v>0.01524662969695504</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.4993676666666667</v>
+        <v>0.266652</v>
       </c>
       <c r="H12">
-        <v>1.498103</v>
+        <v>0.799956</v>
       </c>
       <c r="I12">
-        <v>0.07903816220312011</v>
+        <v>0.03544462432103749</v>
       </c>
       <c r="J12">
-        <v>0.07903816220312013</v>
+        <v>0.03544462432103749</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N12">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O12">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P12">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q12">
-        <v>3.300909330567222</v>
+        <v>1.62971080542</v>
       </c>
       <c r="R12">
-        <v>29.708183975105</v>
+        <v>14.66739724878</v>
       </c>
       <c r="S12">
-        <v>0.05186024225453937</v>
+        <v>0.02148481163878715</v>
       </c>
       <c r="T12">
-        <v>0.05186024225453939</v>
+        <v>0.02148481163878714</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.4993676666666667</v>
+        <v>0.266652</v>
       </c>
       <c r="H13">
-        <v>1.498103</v>
+        <v>0.799956</v>
       </c>
       <c r="I13">
-        <v>0.07903816220312011</v>
+        <v>0.03544462432103749</v>
       </c>
       <c r="J13">
-        <v>0.07903816220312013</v>
+        <v>0.03544462432103749</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>8.262912</v>
       </c>
       <c r="O13">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P13">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q13">
-        <v>1.375410361770667</v>
+        <v>0.734440670208</v>
       </c>
       <c r="R13">
-        <v>12.378693255936</v>
+        <v>6.609966031872</v>
       </c>
       <c r="S13">
-        <v>0.0216089287579957</v>
+        <v>0.00968228191578868</v>
       </c>
       <c r="T13">
-        <v>0.02160892875799572</v>
+        <v>0.00968228191578868</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.4993676666666667</v>
+        <v>0.266652</v>
       </c>
       <c r="H14">
-        <v>1.498103</v>
+        <v>0.799956</v>
       </c>
       <c r="I14">
-        <v>0.07903816220312011</v>
+        <v>0.03544462432103749</v>
       </c>
       <c r="J14">
-        <v>0.07903816220312013</v>
+        <v>0.03544462432103749</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N14">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O14">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P14">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q14">
-        <v>0.1144968496281111</v>
+        <v>0.151575396228</v>
       </c>
       <c r="R14">
-        <v>1.030471646653</v>
+        <v>1.364178566052</v>
       </c>
       <c r="S14">
-        <v>0.001798848064110583</v>
+        <v>0.001998249521450429</v>
       </c>
       <c r="T14">
-        <v>0.001798848064110583</v>
+        <v>0.001998249521450429</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.4993676666666667</v>
+        <v>0.266652</v>
       </c>
       <c r="H15">
-        <v>1.498103</v>
+        <v>0.799956</v>
       </c>
       <c r="I15">
-        <v>0.07903816220312011</v>
+        <v>0.03544462432103749</v>
       </c>
       <c r="J15">
-        <v>0.07903816220312013</v>
+        <v>0.03544462432103749</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N15">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O15">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P15">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q15">
-        <v>0.1326728339594444</v>
+        <v>0.09837227811600001</v>
       </c>
       <c r="R15">
-        <v>1.194055505635</v>
+        <v>0.885350503044</v>
       </c>
       <c r="S15">
-        <v>0.002084409058442918</v>
+        <v>0.001296861908733532</v>
       </c>
       <c r="T15">
-        <v>0.002084409058442919</v>
+        <v>0.001296861908733532</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.4993676666666667</v>
+        <v>0.266652</v>
       </c>
       <c r="H16">
-        <v>1.498103</v>
+        <v>0.799956</v>
       </c>
       <c r="I16">
-        <v>0.07903816220312011</v>
+        <v>0.03544462432103749</v>
       </c>
       <c r="J16">
-        <v>0.07903816220312013</v>
+        <v>0.03544462432103749</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N16">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q16">
-        <v>0.107297133066</v>
+        <v>0.074520523368</v>
       </c>
       <c r="R16">
-        <v>0.965674197594</v>
+        <v>0.6706847103119999</v>
       </c>
       <c r="S16">
-        <v>0.001685734068031527</v>
+        <v>0.0009824193362777025</v>
       </c>
       <c r="T16">
-        <v>0.001685734068031527</v>
+        <v>0.0009824193362777023</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.393648333333333</v>
+        <v>3.085419666666667</v>
       </c>
       <c r="H17">
-        <v>4.180945</v>
+        <v>9.256259</v>
       </c>
       <c r="I17">
-        <v>0.2205817684580593</v>
+        <v>0.4101283356499884</v>
       </c>
       <c r="J17">
-        <v>0.2205817684580594</v>
+        <v>0.4101283356499884</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N17">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O17">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P17">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q17">
-        <v>9.212264017286111</v>
+        <v>18.85731879011611</v>
       </c>
       <c r="R17">
-        <v>82.91037615557501</v>
+        <v>169.715869111045</v>
       </c>
       <c r="S17">
-        <v>0.14473291926717</v>
+        <v>0.2485998993630003</v>
       </c>
       <c r="T17">
-        <v>0.14473291926717</v>
+        <v>0.2485998993630003</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.393648333333333</v>
+        <v>3.085419666666667</v>
       </c>
       <c r="H18">
-        <v>4.180945</v>
+        <v>9.256259</v>
       </c>
       <c r="I18">
-        <v>0.2205817684580593</v>
+        <v>0.4101283356499884</v>
       </c>
       <c r="J18">
-        <v>0.2205817684580594</v>
+        <v>0.4101283356499884</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>8.262912</v>
       </c>
       <c r="O18">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P18">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q18">
-        <v>3.838531179093333</v>
+        <v>8.498183729578667</v>
       </c>
       <c r="R18">
-        <v>34.54678061184001</v>
+        <v>76.48365356620801</v>
       </c>
       <c r="S18">
-        <v>0.06030676305040331</v>
+        <v>0.1120332982358482</v>
       </c>
       <c r="T18">
-        <v>0.06030676305040335</v>
+        <v>0.1120332982358482</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.393648333333333</v>
+        <v>3.085419666666667</v>
       </c>
       <c r="H19">
-        <v>4.180945</v>
+        <v>9.256259</v>
       </c>
       <c r="I19">
-        <v>0.2205817684580593</v>
+        <v>0.4101283356499884</v>
       </c>
       <c r="J19">
-        <v>0.2205817684580594</v>
+        <v>0.4101283356499884</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N19">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O19">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P19">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q19">
-        <v>0.3195407999105556</v>
+        <v>1.753872869900333</v>
       </c>
       <c r="R19">
-        <v>2.875867199195</v>
+        <v>15.784855829103</v>
       </c>
       <c r="S19">
-        <v>0.00502027218382369</v>
+        <v>0.02312166558807138</v>
       </c>
       <c r="T19">
-        <v>0.005020272183823692</v>
+        <v>0.02312166558807137</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.393648333333333</v>
+        <v>3.085419666666667</v>
       </c>
       <c r="H20">
-        <v>4.180945</v>
+        <v>9.256259</v>
       </c>
       <c r="I20">
-        <v>0.2205817684580593</v>
+        <v>0.4101283356499884</v>
       </c>
       <c r="J20">
-        <v>0.2205817684580594</v>
+        <v>0.4101283356499884</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N20">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O20">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P20">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q20">
-        <v>0.3702668119472222</v>
+        <v>1.138261710221222</v>
       </c>
       <c r="R20">
-        <v>3.332401307525</v>
+        <v>10.244355391991</v>
       </c>
       <c r="S20">
-        <v>0.005817223268928522</v>
+        <v>0.01500593746965075</v>
       </c>
       <c r="T20">
-        <v>0.005817223268928524</v>
+        <v>0.01500593746965075</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,356 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.393648333333333</v>
+        <v>3.085419666666667</v>
       </c>
       <c r="H21">
-        <v>4.180945</v>
+        <v>9.256259</v>
       </c>
       <c r="I21">
-        <v>0.2205817684580593</v>
+        <v>0.4101283356499884</v>
       </c>
       <c r="J21">
-        <v>0.2205817684580594</v>
+        <v>0.4101283356499884</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N21">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q21">
-        <v>0.29944764279</v>
+        <v>0.8622740064575556</v>
       </c>
       <c r="R21">
-        <v>2.69502878511</v>
+        <v>7.760466058118</v>
       </c>
       <c r="S21">
-        <v>0.004704590687733801</v>
+        <v>0.01136753499341777</v>
       </c>
       <c r="T21">
-        <v>0.004704590687733803</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.2551203333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.765361</v>
-      </c>
-      <c r="I22">
-        <v>0.04037955124710532</v>
-      </c>
-      <c r="J22">
-        <v>0.04037955124710532</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>6.610178333333334</v>
-      </c>
-      <c r="N22">
-        <v>19.830535</v>
-      </c>
-      <c r="O22">
-        <v>0.6561418030098394</v>
-      </c>
-      <c r="P22">
-        <v>0.6561418030098395</v>
-      </c>
-      <c r="Q22">
-        <v>1.686390899792778</v>
-      </c>
-      <c r="R22">
-        <v>15.177518098135</v>
-      </c>
-      <c r="S22">
-        <v>0.02649471156000389</v>
-      </c>
-      <c r="T22">
-        <v>0.02649471156000389</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.2551203333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.765361</v>
-      </c>
-      <c r="I23">
-        <v>0.04037955124710532</v>
-      </c>
-      <c r="J23">
-        <v>0.04037955124710532</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>2.754304</v>
-      </c>
-      <c r="N23">
-        <v>8.262912</v>
-      </c>
-      <c r="O23">
-        <v>0.2733986742057961</v>
-      </c>
-      <c r="P23">
-        <v>0.2733986742057962</v>
-      </c>
-      <c r="Q23">
-        <v>0.7026789545813333</v>
-      </c>
-      <c r="R23">
-        <v>6.324110591231999</v>
-      </c>
-      <c r="S23">
-        <v>0.01103971577598359</v>
-      </c>
-      <c r="T23">
-        <v>0.0110397157759836</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.2551203333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.765361</v>
-      </c>
-      <c r="I24">
-        <v>0.04037955124710532</v>
-      </c>
-      <c r="J24">
-        <v>0.04037955124710532</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.2292836666666667</v>
-      </c>
-      <c r="N24">
-        <v>0.687851</v>
-      </c>
-      <c r="O24">
-        <v>0.02275923445041301</v>
-      </c>
-      <c r="P24">
-        <v>0.02275923445041302</v>
-      </c>
-      <c r="Q24">
-        <v>0.05849492546788889</v>
-      </c>
-      <c r="R24">
-        <v>0.526454329211</v>
-      </c>
-      <c r="S24">
-        <v>0.000919007673835337</v>
-      </c>
-      <c r="T24">
-        <v>0.0009190076738353371</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.2551203333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.765361</v>
-      </c>
-      <c r="I25">
-        <v>0.04037955124710532</v>
-      </c>
-      <c r="J25">
-        <v>0.04037955124710532</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.2656816666666666</v>
-      </c>
-      <c r="N25">
-        <v>0.797045</v>
-      </c>
-      <c r="O25">
-        <v>0.02637218528799033</v>
-      </c>
-      <c r="P25">
-        <v>0.02637218528799034</v>
-      </c>
-      <c r="Q25">
-        <v>0.06778079536055555</v>
-      </c>
-      <c r="R25">
-        <v>0.610027158245</v>
-      </c>
-      <c r="S25">
-        <v>0.001064897007334562</v>
-      </c>
-      <c r="T25">
-        <v>0.001064897007334563</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.2551203333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.765361</v>
-      </c>
-      <c r="I26">
-        <v>0.04037955124710532</v>
-      </c>
-      <c r="J26">
-        <v>0.04037955124710532</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.214866</v>
-      </c>
-      <c r="N26">
-        <v>0.644598</v>
-      </c>
-      <c r="O26">
-        <v>0.02132810304596101</v>
-      </c>
-      <c r="P26">
-        <v>0.02132810304596101</v>
-      </c>
-      <c r="Q26">
-        <v>0.054816685542</v>
-      </c>
-      <c r="R26">
-        <v>0.493350169878</v>
-      </c>
-      <c r="S26">
-        <v>0.0008612192299479256</v>
-      </c>
-      <c r="T26">
-        <v>0.0008612192299479257</v>
+        <v>0.01136753499341777</v>
       </c>
     </row>
   </sheetData>
